--- a/安全建设-安全方面重组版.xlsx
+++ b/安全建设-安全方面重组版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="100">
   <si>
     <t>类别</t>
   </si>
@@ -314,12 +314,6 @@
   </si>
   <si>
     <t>构建漏洞安全管理系统，对漏洞进行统一管理和闭环跟踪</t>
-  </si>
-  <si>
-    <t>安全托管运营服务MSS</t>
-  </si>
-  <si>
-    <t>依托部署在客户本地和云端的统一安全运营平台，充分整合平台、工具、专家、流程和知识库，打破数据孤岛、获取专家资源、外包安全值守，有效减少无效告警，为安全人员对事件的深入挖掘提供条件。</t>
   </si>
 </sst>
 </file>
@@ -1413,10 +1407,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2101,32 +2095,12 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" ht="42" spans="1:8">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A15:A30"/>
-    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B12"/>
@@ -2135,7 +2109,7 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="C26:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/安全建设-安全方面重组版.xlsx
+++ b/安全建设-安全方面重组版.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="758"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="758" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="安全建设" sheetId="16" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="121">
   <si>
     <t>类别</t>
   </si>
@@ -314,6 +315,69 @@
   </si>
   <si>
     <t>构建漏洞安全管理系统，对漏洞进行统一管理和闭环跟踪</t>
+  </si>
+  <si>
+    <t>调研</t>
+  </si>
+  <si>
+    <t>调查公司的战略、业务、业务应用、基础资产、安全设备、工作流程制度、安全管理制度等现实环境，全方位分析公司面临的重点威胁和安全诉求，输出调查分析报告</t>
+  </si>
+  <si>
+    <t>管理体系</t>
+  </si>
+  <si>
+    <t>管理制度</t>
+  </si>
+  <si>
+    <t>合规类</t>
+  </si>
+  <si>
+    <t>典型如应急演练制度，一般不会落地</t>
+  </si>
+  <si>
+    <t>安全管理制度，如红线，如泄密规定</t>
+  </si>
+  <si>
+    <t>需要落地的</t>
+  </si>
+  <si>
+    <t>账号密码制度</t>
+  </si>
+  <si>
+    <t>权限管理制度</t>
+  </si>
+  <si>
+    <t>工作流程</t>
+  </si>
+  <si>
+    <t>各部门的工作流程类管理文件，比如服务器权限的申请流程，git权限的申请流程，系统数据的调用流程</t>
+  </si>
+  <si>
+    <t>技术体系</t>
+  </si>
+  <si>
+    <t>工作系统</t>
+  </si>
+  <si>
+    <t>流程落地的工作系统，流程一般需要借助工作系统落地，没有系统的话容易不走流程</t>
+  </si>
+  <si>
+    <t>安全技术</t>
+  </si>
+  <si>
+    <t>SDL、DevSecOps</t>
+  </si>
+  <si>
+    <t>基础安全</t>
+  </si>
+  <si>
+    <t>安全产品居多</t>
+  </si>
+  <si>
+    <t>办公安全</t>
+  </si>
+  <si>
+    <t>权限，审计</t>
   </si>
 </sst>
 </file>
@@ -1001,9 +1065,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1028,9 +1098,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1409,691 +1476,691 @@
   <sheetPr/>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1363636363636" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.8545454545455" style="1" customWidth="1"/>
-    <col min="4" max="4" width="65" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7090909090909" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.4272727272727" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.7090909090909" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.2818181818182" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.1363636363636" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.8545454545455" style="3" customWidth="1"/>
+    <col min="4" max="4" width="65" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.7090909090909" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.4272727272727" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.7090909090909" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" ht="42" spans="1:8">
-      <c r="A3" s="7"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" ht="42" spans="1:8">
-      <c r="A4" s="7"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" ht="42" spans="1:8">
-      <c r="A5" s="7"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" ht="42" spans="1:8">
-      <c r="A6" s="7"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" ht="28" spans="1:8">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" ht="28" spans="1:8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" ht="28" spans="1:8">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" ht="28" spans="1:8">
-      <c r="A10" s="16"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" ht="28" spans="1:8">
-      <c r="A11" s="16"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" ht="28" spans="1:8">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" ht="56" spans="1:8">
-      <c r="A13" s="16"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" ht="28" spans="1:8">
-      <c r="A14" s="17"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" ht="42" spans="1:8">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" ht="42" spans="1:8">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" ht="28" spans="1:8">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" ht="28" spans="1:8">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" ht="28" spans="1:8">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" ht="28" spans="1:8">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="11" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" ht="28" spans="1:8">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="11" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" ht="28" spans="1:8">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="11" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" ht="28" spans="1:8">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" ht="28" spans="1:8">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" ht="28" spans="1:8">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" ht="28" spans="1:8">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" ht="28" spans="1:8">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="9" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" ht="28" spans="1:8">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="9" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" ht="28" spans="1:8">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" ht="28" spans="1:8">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" ht="28" spans="1:8">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="7" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2115,4 +2182,133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B5:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <cols>
+    <col min="4" max="4" width="12.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="25.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" ht="104" customHeight="1" spans="2:5">
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" ht="84" spans="2:6">
+      <c r="B6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2"/>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2"/>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="2"/>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>